--- a/Code/Results/Cases/Case_2_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035803494873562</v>
+        <v>1.054601782356865</v>
       </c>
       <c r="D2">
-        <v>1.053925135565104</v>
+        <v>1.062033843852216</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.058478238670237</v>
+        <v>1.070775148022582</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067274087369292</v>
+        <v>1.05360258256022</v>
       </c>
       <c r="J2">
-        <v>1.056963633237201</v>
+        <v>1.059613021632177</v>
       </c>
       <c r="K2">
-        <v>1.064681050824851</v>
+        <v>1.064756287437982</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.06917883884809</v>
+        <v>1.073474087112851</v>
       </c>
       <c r="N2">
-        <v>1.022164984501239</v>
+        <v>1.023593548019571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.040855424503071</v>
+        <v>1.05563299783454</v>
       </c>
       <c r="D3">
-        <v>1.057997501339635</v>
+        <v>1.062879824408843</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.063053374180411</v>
+        <v>1.071751971969555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069345592619684</v>
+        <v>1.053951911540173</v>
       </c>
       <c r="J3">
-        <v>1.060291071362456</v>
+        <v>1.060295187620437</v>
       </c>
       <c r="K3">
-        <v>1.067938413925467</v>
+        <v>1.065416926584839</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.07293836502585</v>
+        <v>1.07426694082838</v>
       </c>
       <c r="N3">
-        <v>1.023318207506136</v>
+        <v>1.023826566979097</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044050760342085</v>
+        <v>1.056300231080739</v>
       </c>
       <c r="D4">
-        <v>1.060575414976959</v>
+        <v>1.063427182863084</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.065951827306716</v>
+        <v>1.072384313232432</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070645332281617</v>
+        <v>1.054176657681791</v>
       </c>
       <c r="J4">
-        <v>1.062391033992277</v>
+        <v>1.060735948988808</v>
       </c>
       <c r="K4">
-        <v>1.069993844983216</v>
+        <v>1.065843710015767</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.075314463982279</v>
+        <v>1.074779618983051</v>
       </c>
       <c r="N4">
-        <v>1.024045529725304</v>
+        <v>1.023976994951966</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.045377139465873</v>
+        <v>1.056580728247904</v>
       </c>
       <c r="D5">
-        <v>1.061645971544918</v>
+        <v>1.063657280422334</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.067156053026805</v>
+        <v>1.072650213822048</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071182299422143</v>
+        <v>1.05427083120998</v>
       </c>
       <c r="J5">
-        <v>1.063261579856806</v>
+        <v>1.060921090239376</v>
       </c>
       <c r="K5">
-        <v>1.070845849293577</v>
+        <v>1.066022963218707</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.076300307058388</v>
+        <v>1.074995064387412</v>
       </c>
       <c r="N5">
-        <v>1.02434692008412</v>
+        <v>1.024040150709913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0455988700495</v>
+        <v>1.056627824505698</v>
       </c>
       <c r="D6">
-        <v>1.061824962512997</v>
+        <v>1.063695914099007</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.06735742566082</v>
+        <v>1.072694863457893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07127191296883</v>
+        <v>1.054286625190469</v>
       </c>
       <c r="J6">
-        <v>1.063407040574208</v>
+        <v>1.06095216718322</v>
       </c>
       <c r="K6">
-        <v>1.070988206916179</v>
+        <v>1.066053050843676</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.076465081352538</v>
+        <v>1.075031233652262</v>
       </c>
       <c r="N6">
-        <v>1.024397272353254</v>
+        <v>1.024050749899597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044068549175202</v>
+        <v>1.056303979127817</v>
       </c>
       <c r="D7">
-        <v>1.060589771036366</v>
+        <v>1.063430257485522</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.065967973648474</v>
+        <v>1.072387865957028</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07065254399482</v>
+        <v>1.054177917250419</v>
       </c>
       <c r="J7">
-        <v>1.0624027139537</v>
+        <v>1.060738423463952</v>
       </c>
       <c r="K7">
-        <v>1.07000527650497</v>
+        <v>1.065846105860696</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.075327687609996</v>
+        <v>1.074782498107595</v>
       </c>
       <c r="N7">
-        <v>1.024049573924229</v>
+        <v>1.023977839173193</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037526479382605</v>
+        <v>1.054950293107242</v>
       </c>
       <c r="D8">
-        <v>1.055313554010757</v>
+        <v>1.062319756451521</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.060037598765881</v>
+        <v>1.07110521385545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06798276245941</v>
+        <v>1.053720907550299</v>
       </c>
       <c r="J8">
-        <v>1.058099424635339</v>
+        <v>1.059843696349347</v>
       </c>
       <c r="K8">
-        <v>1.0657929827817</v>
+        <v>1.064979697079691</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.070461393910678</v>
+        <v>1.073742108213444</v>
       </c>
       <c r="N8">
-        <v>1.022558723765204</v>
+        <v>1.023672370421873</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025402192149255</v>
+        <v>1.05256467882557</v>
       </c>
       <c r="D9">
-        <v>1.045554767085482</v>
+        <v>1.060362571790902</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.049086569182853</v>
+        <v>1.068847113892528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062952858963142</v>
+        <v>1.052905702748027</v>
       </c>
       <c r="J9">
-        <v>1.050088755273459</v>
+        <v>1.058262139175852</v>
       </c>
       <c r="K9">
-        <v>1.05794959049223</v>
+        <v>1.063447671518091</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.061430466526912</v>
+        <v>1.071906136122054</v>
       </c>
       <c r="N9">
-        <v>1.019779955424325</v>
+        <v>1.023131415196243</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016869298640377</v>
+        <v>1.050974099663244</v>
       </c>
       <c r="D10">
-        <v>1.038703412100341</v>
+        <v>1.059057583810289</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.041409493877828</v>
+        <v>1.067343151726689</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059359780967457</v>
+        <v>1.052355589289683</v>
       </c>
       <c r="J10">
-        <v>1.044429242936536</v>
+        <v>1.057204463532115</v>
       </c>
       <c r="K10">
-        <v>1.052407341395507</v>
+        <v>1.062422773810849</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.055069280922753</v>
+        <v>1.070680379805182</v>
       </c>
       <c r="N10">
-        <v>1.017814889708275</v>
+        <v>1.022768985130365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.013055642149292</v>
+        <v>1.050285319240481</v>
       </c>
       <c r="D11">
-        <v>1.035646107157767</v>
+        <v>1.058492468301749</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.037986259957884</v>
+        <v>1.066692265648369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057741894029442</v>
+        <v>1.052115809853371</v>
       </c>
       <c r="J11">
-        <v>1.041895199501186</v>
+        <v>1.056745696623038</v>
       </c>
       <c r="K11">
-        <v>1.049925707133974</v>
+        <v>1.061978143510053</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.052225686163757</v>
+        <v>1.070149196654328</v>
       </c>
       <c r="N11">
-        <v>1.016934705033538</v>
+        <v>1.022611625208434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011620096600125</v>
+        <v>1.05002946786342</v>
       </c>
       <c r="D12">
-        <v>1.034496068533397</v>
+        <v>1.058282552539153</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.036698940869579</v>
+        <v>1.066450548898807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057131133558322</v>
+        <v>1.052026508269612</v>
       </c>
       <c r="J12">
-        <v>1.040940686802909</v>
+        <v>1.056575172094612</v>
       </c>
       <c r="K12">
-        <v>1.048990932409629</v>
+        <v>1.061812861556071</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.051155275641569</v>
+        <v>1.069951828313198</v>
       </c>
       <c r="N12">
-        <v>1.016603121881485</v>
+        <v>1.022553110928812</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011928904157607</v>
+        <v>1.050084349203354</v>
       </c>
       <c r="D13">
-        <v>1.034743421852769</v>
+        <v>1.058327580480023</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.036975804435736</v>
+        <v>1.066502395634617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057262595615423</v>
+        <v>1.05204567447843</v>
       </c>
       <c r="J13">
-        <v>1.04114604509681</v>
+        <v>1.056611755526652</v>
       </c>
       <c r="K13">
-        <v>1.049192044148863</v>
+        <v>1.061848320816374</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.051385536853362</v>
+        <v>1.06999416735184</v>
       </c>
       <c r="N13">
-        <v>1.016674461810038</v>
+        <v>1.022565665325813</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012937373612287</v>
+        <v>1.050264170643687</v>
       </c>
       <c r="D14">
-        <v>1.035551343636709</v>
+        <v>1.058475116733856</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.037880177091987</v>
+        <v>1.066672284217668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057691611322798</v>
+        <v>1.052108432987441</v>
       </c>
       <c r="J14">
-        <v>1.041816573978385</v>
+        <v>1.056731603420529</v>
       </c>
       <c r="K14">
-        <v>1.049848707476928</v>
+        <v>1.061964483831042</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.052137499534468</v>
+        <v>1.070132883415055</v>
       </c>
       <c r="N14">
-        <v>1.0169073924565</v>
+        <v>1.022606789700708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013556174131126</v>
+        <v>1.05037496354469</v>
       </c>
       <c r="D15">
-        <v>1.036047195054505</v>
+        <v>1.058566017812432</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.0384352720394</v>
+        <v>1.06677696499077</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057954627718627</v>
+        <v>1.052147069196153</v>
       </c>
       <c r="J15">
-        <v>1.042227929846263</v>
+        <v>1.056805430019947</v>
       </c>
       <c r="K15">
-        <v>1.050251557014459</v>
+        <v>1.062036038945528</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.052598906212216</v>
+        <v>1.07021834258276</v>
       </c>
       <c r="N15">
-        <v>1.017050285866221</v>
+        <v>1.022632119334485</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.017119800175973</v>
+        <v>1.051019810692331</v>
       </c>
       <c r="D16">
-        <v>1.038904338818208</v>
+        <v>1.059095087705132</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.041634521197834</v>
+        <v>1.067386356071505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059465807037567</v>
+        <v>1.052371469446881</v>
       </c>
       <c r="J16">
-        <v>1.044595600922785</v>
+        <v>1.057234893819079</v>
       </c>
       <c r="K16">
-        <v>1.052570257693408</v>
+        <v>1.06245226471597</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.055256057477721</v>
+        <v>1.070715623797014</v>
       </c>
       <c r="N16">
-        <v>1.01787266719742</v>
+        <v>1.022779419637839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019322580075748</v>
+        <v>1.051424292917479</v>
       </c>
       <c r="D17">
-        <v>1.0406717390481</v>
+        <v>1.059426946926197</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.04361420287076</v>
+        <v>1.067768702106928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060396786633081</v>
+        <v>1.052511807711203</v>
       </c>
       <c r="J17">
-        <v>1.046057949018774</v>
+        <v>1.057504074629865</v>
       </c>
       <c r="K17">
-        <v>1.054002342531779</v>
+        <v>1.062713126610541</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.056898417869099</v>
+        <v>1.071027442183961</v>
       </c>
       <c r="N17">
-        <v>1.018380516686753</v>
+        <v>1.022871703429087</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.020596037134838</v>
+        <v>1.051660215832348</v>
       </c>
       <c r="D18">
-        <v>1.041693947484668</v>
+        <v>1.059620510225545</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.044759429320476</v>
+        <v>1.06799175081257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060933857836873</v>
+        <v>1.052593512516189</v>
       </c>
       <c r="J18">
-        <v>1.046902913079002</v>
+        <v>1.057661007363905</v>
       </c>
       <c r="K18">
-        <v>1.054829810307935</v>
+        <v>1.062865201608419</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.057847832003854</v>
+        <v>1.071209279786286</v>
       </c>
       <c r="N18">
-        <v>1.018673927159957</v>
+        <v>1.022925489960065</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021028354350905</v>
+        <v>1.05174065865671</v>
       </c>
       <c r="D19">
-        <v>1.042041044210553</v>
+        <v>1.059686509521953</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.045148338804482</v>
+        <v>1.068067810199258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061115989425379</v>
+        <v>1.052621345937716</v>
       </c>
       <c r="J19">
-        <v>1.047189688194656</v>
+        <v>1.057714504498166</v>
       </c>
       <c r="K19">
-        <v>1.055110645326666</v>
+        <v>1.062917041452493</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.058170130602205</v>
+        <v>1.071271274784669</v>
       </c>
       <c r="N19">
-        <v>1.018773503027193</v>
+        <v>1.022943822812488</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019087428320349</v>
+        <v>1.051380896293167</v>
       </c>
       <c r="D20">
-        <v>1.040483017796802</v>
+        <v>1.059391342042325</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.043402789485503</v>
+        <v>1.067727676607784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060297520482033</v>
+        <v>1.052496766478695</v>
       </c>
       <c r="J20">
-        <v>1.045901885289656</v>
+        <v>1.057475201924251</v>
       </c>
       <c r="K20">
-        <v>1.053849509475923</v>
+        <v>1.062685147009296</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.056723097610989</v>
+        <v>1.0709939912392</v>
       </c>
       <c r="N20">
-        <v>1.018326321531734</v>
+        <v>1.022861806496187</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012640938051905</v>
+        <v>1.050211217925104</v>
       </c>
       <c r="D21">
-        <v>1.035313835637625</v>
+        <v>1.058431671166318</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.037614305034198</v>
+        <v>1.066622254845054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057565551623002</v>
+        <v>1.052089958707846</v>
       </c>
       <c r="J21">
-        <v>1.041619491949986</v>
+        <v>1.056696314461689</v>
       </c>
       <c r="K21">
-        <v>1.049655700814701</v>
+        <v>1.061930280208205</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.051916463064635</v>
+        <v>1.07009203673659</v>
       </c>
       <c r="N21">
-        <v>1.016838930405286</v>
+        <v>1.022594681357636</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008477312286373</v>
+        <v>1.049475750256923</v>
       </c>
       <c r="D22">
-        <v>1.031979892835175</v>
+        <v>1.05782824941288</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.033883069987529</v>
+        <v>1.065927529392357</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055790856906295</v>
+        <v>1.051832812347514</v>
       </c>
       <c r="J22">
-        <v>1.038849884814506</v>
+        <v>1.056205913909358</v>
       </c>
       <c r="K22">
-        <v>1.046943371948534</v>
+        <v>1.061454933893999</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.048811909811131</v>
+        <v>1.06952457620211</v>
       </c>
       <c r="N22">
-        <v>1.015876749163189</v>
+        <v>1.022426360114225</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010695400574696</v>
+        <v>1.049865639888636</v>
       </c>
       <c r="D23">
-        <v>1.033755514886452</v>
+        <v>1.058148138233782</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.035870089040054</v>
+        <v>1.066295788232654</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056737229953934</v>
+        <v>1.051969260356555</v>
       </c>
       <c r="J23">
-        <v>1.040325670020354</v>
+        <v>1.056465949245666</v>
       </c>
       <c r="K23">
-        <v>1.048388633812809</v>
+        <v>1.061706993261516</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.050465782081235</v>
+        <v>1.069825432381801</v>
       </c>
       <c r="N23">
-        <v>1.016389464775554</v>
+        <v>1.022515625339829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019193718383592</v>
+        <v>1.051400505374117</v>
       </c>
       <c r="D24">
-        <v>1.040568319590952</v>
+        <v>1.059407430370818</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.043498347349949</v>
+        <v>1.067746214163717</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060342392945306</v>
+        <v>1.052503563434214</v>
       </c>
       <c r="J24">
-        <v>1.045972428437036</v>
+        <v>1.057488248491463</v>
       </c>
       <c r="K24">
-        <v>1.053918592341663</v>
+        <v>1.062697790037953</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.056802343644477</v>
+        <v>1.071009106407204</v>
       </c>
       <c r="N24">
-        <v>1.018350818654078</v>
+        <v>1.022866278620953</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028612109765097</v>
+        <v>1.053181446921732</v>
       </c>
       <c r="D25">
-        <v>1.048135802342766</v>
+        <v>1.060868588090712</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.051980937665024</v>
+        <v>1.06943063547857</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06429384153326</v>
+        <v>1.053117624403429</v>
       </c>
       <c r="J25">
-        <v>1.05221349286094</v>
+        <v>1.058671592948174</v>
       </c>
       <c r="K25">
-        <v>1.060030155324996</v>
+        <v>1.06384436339314</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.06382255735045</v>
+        <v>1.072381093343518</v>
       </c>
       <c r="N25">
-        <v>1.020517350424194</v>
+        <v>1.023271581806308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054601782356865</v>
+        <v>1.035803494873562</v>
       </c>
       <c r="D2">
-        <v>1.062033843852216</v>
+        <v>1.053925135565103</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.070775148022582</v>
+        <v>1.058478238670237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05360258256022</v>
+        <v>1.067274087369292</v>
       </c>
       <c r="J2">
-        <v>1.059613021632177</v>
+        <v>1.056963633237201</v>
       </c>
       <c r="K2">
-        <v>1.064756287437982</v>
+        <v>1.06468105082485</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.073474087112851</v>
+        <v>1.069178838848089</v>
       </c>
       <c r="N2">
-        <v>1.023593548019571</v>
+        <v>1.022164984501239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05563299783454</v>
+        <v>1.040855424503072</v>
       </c>
       <c r="D3">
-        <v>1.062879824408843</v>
+        <v>1.057997501339636</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.071751971969555</v>
+        <v>1.063053374180412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053951911540173</v>
+        <v>1.069345592619684</v>
       </c>
       <c r="J3">
-        <v>1.060295187620437</v>
+        <v>1.060291071362456</v>
       </c>
       <c r="K3">
-        <v>1.065416926584839</v>
+        <v>1.067938413925467</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.07426694082838</v>
+        <v>1.072938365025851</v>
       </c>
       <c r="N3">
-        <v>1.023826566979097</v>
+        <v>1.023318207506136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056300231080739</v>
+        <v>1.044050760342087</v>
       </c>
       <c r="D4">
-        <v>1.063427182863084</v>
+        <v>1.06057541497696</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.072384313232432</v>
+        <v>1.065951827306717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054176657681791</v>
+        <v>1.070645332281618</v>
       </c>
       <c r="J4">
-        <v>1.060735948988808</v>
+        <v>1.062391033992278</v>
       </c>
       <c r="K4">
-        <v>1.065843710015767</v>
+        <v>1.069993844983217</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.074779618983051</v>
+        <v>1.07531446398228</v>
       </c>
       <c r="N4">
-        <v>1.023976994951966</v>
+        <v>1.024045529725304</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056580728247904</v>
+        <v>1.045377139465873</v>
       </c>
       <c r="D5">
-        <v>1.063657280422334</v>
+        <v>1.061645971544918</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.072650213822048</v>
+        <v>1.067156053026805</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05427083120998</v>
+        <v>1.071182299422142</v>
       </c>
       <c r="J5">
-        <v>1.060921090239376</v>
+        <v>1.063261579856806</v>
       </c>
       <c r="K5">
-        <v>1.066022963218707</v>
+        <v>1.070845849293576</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.074995064387412</v>
+        <v>1.076300307058388</v>
       </c>
       <c r="N5">
-        <v>1.024040150709913</v>
+        <v>1.02434692008412</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056627824505698</v>
+        <v>1.0455988700495</v>
       </c>
       <c r="D6">
-        <v>1.063695914099007</v>
+        <v>1.061824962512997</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.072694863457893</v>
+        <v>1.06735742566082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054286625190469</v>
+        <v>1.07127191296883</v>
       </c>
       <c r="J6">
-        <v>1.06095216718322</v>
+        <v>1.063407040574207</v>
       </c>
       <c r="K6">
-        <v>1.066053050843676</v>
+        <v>1.070988206916178</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.075031233652262</v>
+        <v>1.076465081352537</v>
       </c>
       <c r="N6">
-        <v>1.024050749899597</v>
+        <v>1.024397272353254</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056303979127817</v>
+        <v>1.044068549175201</v>
       </c>
       <c r="D7">
-        <v>1.063430257485522</v>
+        <v>1.060589771036366</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.072387865957028</v>
+        <v>1.065967973648473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054177917250419</v>
+        <v>1.070652543994819</v>
       </c>
       <c r="J7">
-        <v>1.060738423463952</v>
+        <v>1.062402713953699</v>
       </c>
       <c r="K7">
-        <v>1.065846105860696</v>
+        <v>1.070005276504969</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.074782498107595</v>
+        <v>1.075327687609996</v>
       </c>
       <c r="N7">
-        <v>1.023977839173193</v>
+        <v>1.024049573924229</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054950293107242</v>
+        <v>1.037526479382604</v>
       </c>
       <c r="D8">
-        <v>1.062319756451521</v>
+        <v>1.055313554010755</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.07110521385545</v>
+        <v>1.060037598765881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053720907550299</v>
+        <v>1.06798276245941</v>
       </c>
       <c r="J8">
-        <v>1.059843696349347</v>
+        <v>1.058099424635338</v>
       </c>
       <c r="K8">
-        <v>1.064979697079691</v>
+        <v>1.065792982781699</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.073742108213444</v>
+        <v>1.070461393910677</v>
       </c>
       <c r="N8">
-        <v>1.023672370421873</v>
+        <v>1.022558723765204</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05256467882557</v>
+        <v>1.025402192149256</v>
       </c>
       <c r="D9">
-        <v>1.060362571790902</v>
+        <v>1.045554767085483</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.068847113892528</v>
+        <v>1.049086569182853</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052905702748027</v>
+        <v>1.062952858963143</v>
       </c>
       <c r="J9">
-        <v>1.058262139175852</v>
+        <v>1.05008875527346</v>
       </c>
       <c r="K9">
-        <v>1.063447671518091</v>
+        <v>1.057949590492231</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.071906136122054</v>
+        <v>1.061430466526913</v>
       </c>
       <c r="N9">
-        <v>1.023131415196243</v>
+        <v>1.019779955424325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050974099663244</v>
+        <v>1.016869298640376</v>
       </c>
       <c r="D10">
-        <v>1.059057583810289</v>
+        <v>1.03870341210034</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.067343151726689</v>
+        <v>1.041409493877827</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052355589289683</v>
+        <v>1.059359780967457</v>
       </c>
       <c r="J10">
-        <v>1.057204463532115</v>
+        <v>1.044429242936535</v>
       </c>
       <c r="K10">
-        <v>1.062422773810849</v>
+        <v>1.052407341395506</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.070680379805182</v>
+        <v>1.055069280922752</v>
       </c>
       <c r="N10">
-        <v>1.022768985130365</v>
+        <v>1.017814889708275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050285319240481</v>
+        <v>1.013055642149292</v>
       </c>
       <c r="D11">
-        <v>1.058492468301749</v>
+        <v>1.035646107157768</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.066692265648369</v>
+        <v>1.037986259957884</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052115809853371</v>
+        <v>1.057741894029442</v>
       </c>
       <c r="J11">
-        <v>1.056745696623038</v>
+        <v>1.041895199501186</v>
       </c>
       <c r="K11">
-        <v>1.061978143510053</v>
+        <v>1.049925707133974</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.070149196654328</v>
+        <v>1.052225686163757</v>
       </c>
       <c r="N11">
-        <v>1.022611625208434</v>
+        <v>1.016934705033538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.05002946786342</v>
+        <v>1.011620096600127</v>
       </c>
       <c r="D12">
-        <v>1.058282552539153</v>
+        <v>1.034496068533398</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.066450548898807</v>
+        <v>1.03669894086958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052026508269612</v>
+        <v>1.057131133558323</v>
       </c>
       <c r="J12">
-        <v>1.056575172094612</v>
+        <v>1.040940686802911</v>
       </c>
       <c r="K12">
-        <v>1.061812861556071</v>
+        <v>1.04899093240963</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.069951828313198</v>
+        <v>1.051155275641571</v>
       </c>
       <c r="N12">
-        <v>1.022553110928812</v>
+        <v>1.016603121881485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050084349203354</v>
+        <v>1.011928904157607</v>
       </c>
       <c r="D13">
-        <v>1.058327580480023</v>
+        <v>1.034743421852769</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.066502395634617</v>
+        <v>1.036975804435736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05204567447843</v>
+        <v>1.057262595615423</v>
       </c>
       <c r="J13">
-        <v>1.056611755526652</v>
+        <v>1.04114604509681</v>
       </c>
       <c r="K13">
-        <v>1.061848320816374</v>
+        <v>1.049192044148863</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.06999416735184</v>
+        <v>1.051385536853361</v>
       </c>
       <c r="N13">
-        <v>1.022565665325813</v>
+        <v>1.016674461810038</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050264170643687</v>
+        <v>1.012937373612288</v>
       </c>
       <c r="D14">
-        <v>1.058475116733856</v>
+        <v>1.03555134363671</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.066672284217668</v>
+        <v>1.037880177091989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052108432987441</v>
+        <v>1.057691611322798</v>
       </c>
       <c r="J14">
-        <v>1.056731603420529</v>
+        <v>1.041816573978386</v>
       </c>
       <c r="K14">
-        <v>1.061964483831042</v>
+        <v>1.049848707476929</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.070132883415055</v>
+        <v>1.052137499534469</v>
       </c>
       <c r="N14">
-        <v>1.022606789700708</v>
+        <v>1.0169073924565</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05037496354469</v>
+        <v>1.013556174131128</v>
       </c>
       <c r="D15">
-        <v>1.058566017812432</v>
+        <v>1.036047195054506</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.06677696499077</v>
+        <v>1.038435272039402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052147069196153</v>
+        <v>1.057954627718628</v>
       </c>
       <c r="J15">
-        <v>1.056805430019947</v>
+        <v>1.042227929846264</v>
       </c>
       <c r="K15">
-        <v>1.062036038945528</v>
+        <v>1.050251557014461</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.07021834258276</v>
+        <v>1.052598906212217</v>
       </c>
       <c r="N15">
-        <v>1.022632119334485</v>
+        <v>1.017050285866222</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051019810692331</v>
+        <v>1.017119800175973</v>
       </c>
       <c r="D16">
-        <v>1.059095087705132</v>
+        <v>1.038904338818209</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.067386356071505</v>
+        <v>1.041634521197835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052371469446881</v>
+        <v>1.059465807037567</v>
       </c>
       <c r="J16">
-        <v>1.057234893819079</v>
+        <v>1.044595600922785</v>
       </c>
       <c r="K16">
-        <v>1.06245226471597</v>
+        <v>1.052570257693408</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.070715623797014</v>
+        <v>1.055256057477721</v>
       </c>
       <c r="N16">
-        <v>1.022779419637839</v>
+        <v>1.017872667197421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051424292917479</v>
+        <v>1.019322580075748</v>
       </c>
       <c r="D17">
-        <v>1.059426946926197</v>
+        <v>1.0406717390481</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.067768702106928</v>
+        <v>1.04361420287076</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052511807711203</v>
+        <v>1.060396786633081</v>
       </c>
       <c r="J17">
-        <v>1.057504074629865</v>
+        <v>1.046057949018774</v>
       </c>
       <c r="K17">
-        <v>1.062713126610541</v>
+        <v>1.054002342531779</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.071027442183961</v>
+        <v>1.056898417869099</v>
       </c>
       <c r="N17">
-        <v>1.022871703429087</v>
+        <v>1.018380516686753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051660215832348</v>
+        <v>1.020596037134838</v>
       </c>
       <c r="D18">
-        <v>1.059620510225545</v>
+        <v>1.041693947484668</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.06799175081257</v>
+        <v>1.044759429320476</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052593512516189</v>
+        <v>1.060933857836873</v>
       </c>
       <c r="J18">
-        <v>1.057661007363905</v>
+        <v>1.046902913079002</v>
       </c>
       <c r="K18">
-        <v>1.062865201608419</v>
+        <v>1.054829810307935</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.071209279786286</v>
+        <v>1.057847832003854</v>
       </c>
       <c r="N18">
-        <v>1.022925489960065</v>
+        <v>1.018673927159957</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05174065865671</v>
+        <v>1.021028354350905</v>
       </c>
       <c r="D19">
-        <v>1.059686509521953</v>
+        <v>1.042041044210553</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.068067810199258</v>
+        <v>1.045148338804481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052621345937716</v>
+        <v>1.061115989425379</v>
       </c>
       <c r="J19">
-        <v>1.057714504498166</v>
+        <v>1.047189688194656</v>
       </c>
       <c r="K19">
-        <v>1.062917041452493</v>
+        <v>1.055110645326666</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.071271274784669</v>
+        <v>1.058170130602205</v>
       </c>
       <c r="N19">
-        <v>1.022943822812488</v>
+        <v>1.018773503027193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051380896293167</v>
+        <v>1.019087428320348</v>
       </c>
       <c r="D20">
-        <v>1.059391342042325</v>
+        <v>1.040483017796801</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.067727676607784</v>
+        <v>1.043402789485502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052496766478695</v>
+        <v>1.060297520482032</v>
       </c>
       <c r="J20">
-        <v>1.057475201924251</v>
+        <v>1.045901885289656</v>
       </c>
       <c r="K20">
-        <v>1.062685147009296</v>
+        <v>1.053849509475922</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.0709939912392</v>
+        <v>1.056723097610988</v>
       </c>
       <c r="N20">
-        <v>1.022861806496187</v>
+        <v>1.018326321531734</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050211217925104</v>
+        <v>1.012640938051905</v>
       </c>
       <c r="D21">
-        <v>1.058431671166318</v>
+        <v>1.035313835637625</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.066622254845054</v>
+        <v>1.037614305034198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052089958707846</v>
+        <v>1.057565551623002</v>
       </c>
       <c r="J21">
-        <v>1.056696314461689</v>
+        <v>1.041619491949986</v>
       </c>
       <c r="K21">
-        <v>1.061930280208205</v>
+        <v>1.049655700814701</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.07009203673659</v>
+        <v>1.051916463064636</v>
       </c>
       <c r="N21">
-        <v>1.022594681357636</v>
+        <v>1.016838930405286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049475750256923</v>
+        <v>1.008477312286373</v>
       </c>
       <c r="D22">
-        <v>1.05782824941288</v>
+        <v>1.031979892835174</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.065927529392357</v>
+        <v>1.033883069987529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051832812347514</v>
+        <v>1.055790856906294</v>
       </c>
       <c r="J22">
-        <v>1.056205913909358</v>
+        <v>1.038849884814505</v>
       </c>
       <c r="K22">
-        <v>1.061454933893999</v>
+        <v>1.046943371948533</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.06952457620211</v>
+        <v>1.04881190981113</v>
       </c>
       <c r="N22">
-        <v>1.022426360114225</v>
+        <v>1.015876749163189</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049865639888636</v>
+        <v>1.010695400574697</v>
       </c>
       <c r="D23">
-        <v>1.058148138233782</v>
+        <v>1.033755514886453</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.066295788232654</v>
+        <v>1.035870089040055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051969260356555</v>
+        <v>1.056737229953935</v>
       </c>
       <c r="J23">
-        <v>1.056465949245666</v>
+        <v>1.040325670020355</v>
       </c>
       <c r="K23">
-        <v>1.061706993261516</v>
+        <v>1.04838863381281</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.069825432381801</v>
+        <v>1.050465782081236</v>
       </c>
       <c r="N23">
-        <v>1.022515625339829</v>
+        <v>1.016389464775555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051400505374117</v>
+        <v>1.019193718383591</v>
       </c>
       <c r="D24">
-        <v>1.059407430370818</v>
+        <v>1.040568319590951</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.067746214163717</v>
+        <v>1.043498347349948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052503563434214</v>
+        <v>1.060342392945306</v>
       </c>
       <c r="J24">
-        <v>1.057488248491463</v>
+        <v>1.045972428437036</v>
       </c>
       <c r="K24">
-        <v>1.062697790037953</v>
+        <v>1.053918592341662</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.071009106407204</v>
+        <v>1.056802343644476</v>
       </c>
       <c r="N24">
-        <v>1.022866278620953</v>
+        <v>1.018350818654078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053181446921732</v>
+        <v>1.028612109765098</v>
       </c>
       <c r="D25">
-        <v>1.060868588090712</v>
+        <v>1.048135802342766</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.06943063547857</v>
+        <v>1.051980937665025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053117624403429</v>
+        <v>1.064293841533261</v>
       </c>
       <c r="J25">
-        <v>1.058671592948174</v>
+        <v>1.05221349286094</v>
       </c>
       <c r="K25">
-        <v>1.06384436339314</v>
+        <v>1.060030155324997</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.072381093343518</v>
+        <v>1.063822557350451</v>
       </c>
       <c r="N25">
-        <v>1.023271581806308</v>
+        <v>1.020517350424194</v>
       </c>
     </row>
   </sheetData>
